--- a/nba2k26_editor/Offsets/ImportStaff.xlsx
+++ b/nba2k26_editor/Offsets/ImportStaff.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,127 +444,132 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Position</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - ARM_SCALE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - BODYLENGTH</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - BODY_SHAPE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - CURRENT_TEAM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - EYE_COLOR</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Vitals - FIRSTNAME</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - GENDER</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - HAIR_LENGTH</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - HAND_SCALE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - HEIGHT_CM</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Staff Vitals - LASTNAME</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - LOWER_SCALE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - NECK_HEAD_SCALE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - PERSONALITY</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - POSITION</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SALARY</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SHOULDERWIDTH</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SKINCOLOR</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - SKINTYPE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - WINGSPAN_CM</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - YEARS_IN_LEAGUE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Staff Vitals - YEARS_LEFT</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>*Unique Photo ID</t>
         </is>
       </c>
     </row>
@@ -579,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,75 +595,115 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Analytics</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Charisma</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Current Team</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Defensive Coaching</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Offensive Coaching</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Potential</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sports Medicine</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Staff Attributes - BUSINESS</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - CONTRACTS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - DEFENSE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_BUSINESS</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_CONTRACTS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_DEFENSE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_OFFENSE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_SCOUTING</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_TRADING</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_TRAINING</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - OFFENSE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - POTENTIAL</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - SCOUTING</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - TRADING</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Staff Attributes - TRAINING</t>
         </is>
@@ -686,34 +731,34 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Balanced Proficiency</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Defense Proficiency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Grit &amp; Grind Proficiency</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pace &amp;Space Proficiency</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Perimeter Centric Proficiency</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Seven Seconds Proficiency</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Defense Proficiency</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Grit &amp; Grind Proficiency</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pace &amp;Space Proficiency</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Perimeter Centric Proficiency</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Post Centric Proficiency</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Staff Style - ACTIVE_SYSTEM</t>
@@ -721,27 +766,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Staff Style - BALANCED_PROFICIENCY</t>
+          <t>Staff Style - GUARDS_VS_FORWARDS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Staff Style - GUARDS_VS_FORWARDS</t>
+          <t>Staff Style - INSIDE_VS_OUTSIDE</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Staff Style - INSIDE_VS_OUTSIDE</t>
+          <t>Staff Style - OFFENSE_VS_DEFENSE</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Staff Style - OFFENSE_VS_DEFENSE</t>
+          <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
+          <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -766,7 +811,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Staff Style - TRIANGLE_PROFICIENCY</t>
+          <t>Triangle Proficiency</t>
         </is>
       </c>
     </row>
